--- a/biology/Botanique/Eruca_vesicaria/Eruca_vesicaria.xlsx
+++ b/biology/Botanique/Eruca_vesicaria/Eruca_vesicaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eruca vesicaria, la roquette sauvage, est une espèce de plantes à fleurs de la famille des Brassicacées (ou crucifères). C'est une plante annuelle originaire du bassin méditerranéen.
 La roquette, variété cultivée, Eruca sativa, est considérée comme une sous-espèce Eruca vesicaria subsp sativa 
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brassica eruca L. ,
@@ -561,10 +575,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sépales oblong (7 à 12 mm)
-Fleurs aux pétales (15 à 20 mm)  linéaires nervurés[1].</t>
+Fleurs aux pétales (15 à 20 mm)  linéaires nervurés.</t>
         </is>
       </c>
     </row>
@@ -592,7 +608,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rocailles et friches du bassin méditerranéen (Espagne, Grèce, Afrique du Nord)</t>
         </is>
